--- a/wechat-go/Excel 学习笔记/目录结构.xlsx
+++ b/wechat-go/Excel 学习笔记/目录结构.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17505" windowHeight="10515" activeTab="2"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录结构" sheetId="1" r:id="rId1"/>
     <sheet name="配置" sheetId="2" r:id="rId2"/>
     <sheet name="逻辑层" sheetId="3" r:id="rId3"/>
+    <sheet name="视图层wxml" sheetId="4" r:id="rId4"/>
+    <sheet name="视图层wxss" sheetId="5" r:id="rId5"/>
+    <sheet name="视图层-基础组件" sheetId="6" r:id="rId6"/>
+    <sheet name="视图层-wxs" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364">
   <si>
     <t>NO</t>
   </si>
@@ -301,25 +305,1555 @@
   <si>
     <t>逻辑层 App Service</t>
   </si>
+  <si>
+    <t>小程序开发框架的逻辑层使用 JavaScript 引擎为小程序提供开发者 JavaScript 代码的运行环境以及微信小程序的特有功能</t>
+  </si>
+  <si>
+    <t>在 JavaScript 的基础上，我们增加了一些功能，以方便小程序的开发：
+增加 App 和 Page 方法，进行程序和页面的注册。
+增加 getApp 和 getCurrentPages 方法，分别用来获取 App 实例和当前页面栈。
+提供丰富的 API，如微信用户数据，扫一扫，支付等微信特有能力。
+每个页面有独立的作用域，并提供模块化能力。
+注意：小程序框架的逻辑层并非运行在浏览器中，因此 JavaScript 在 web 中一些能力都无法使用，如 window，document 等。</t>
+  </si>
+  <si>
+    <t>App(Object)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">属性 类型 描述 触发时机
+onLaunch Function 生命周期回调—监听小程序初始化 小程序初始化完成时（全局只触发一次）
+onShow Function 生命周期回调—监听小程序显示 小程序启动，或从后台进入前台显示时
+onHide Function 生命周期回调—监听小程序隐藏 小程序从前台进入后台时
+onError Function 错误监听函数 小程序发生脚本错误，或者 api 调用失败时触发，会带上错误信息
+onPageNotFound Function 页面不存在监听函数 小程序要打开的页面不存在时触发，会带上页面信息回调该函数
+其他 Any 开发者可以添加任意的函数或数据到 Object 参数中，用 this 可以访问 </t>
+  </si>
+  <si>
+    <t>App() 函数用来注册一个小程序。接受一个 Object 参数，其指定小程序的生命周期回调等。
+App() 必须在 app.js 中调用，必须调用且只能调用一次。不然会出现无法预期的后果。</t>
+  </si>
+  <si>
+    <t>onLaunch(Object)</t>
+  </si>
+  <si>
+    <t>小程序初始化完成时触发，全局只触发一次。</t>
+  </si>
+  <si>
+    <t>参数也可以使用 wx.getLaunchOptionsSync 获取。</t>
+  </si>
+  <si>
+    <t>onShow(Object)</t>
+  </si>
+  <si>
+    <t>小程序启动，或从后台进入前台显示时触发</t>
+  </si>
+  <si>
+    <t>可以使用 wx.onAppShow 绑定监听。</t>
+  </si>
+  <si>
+    <t>onHide()</t>
+  </si>
+  <si>
+    <t>小程序从前台进入后台时触发。</t>
+  </si>
+  <si>
+    <t>可以使用 wx.onAppHide 绑定监听。</t>
+  </si>
+  <si>
+    <t>onError(String error)</t>
+  </si>
+  <si>
+    <t>小程序发生脚本错误或 API 调用报错时触发</t>
+  </si>
+  <si>
+    <t>可以使用 wx.onError 绑定监听</t>
+  </si>
+  <si>
+    <t>onPageNotFound(Object)</t>
+  </si>
+  <si>
+    <t>小程序要打开的页面不存在时触发
+App({
+  onPageNotFound(res) {
+    wx.redirectTo({
+      url: 'pages/...'
+    }) // 如果是 tabbar 页面，请使用 wx.switchTab
+  }
+})</t>
+  </si>
+  <si>
+    <t>可以使用 wx.onPageNotFound 绑定监听。注意事项请参考 wx.onPageNotFound</t>
+  </si>
+  <si>
+    <t>getApp(Object)</t>
+  </si>
+  <si>
+    <t>全局的 getApp() 函数可以用来获取到小程序 App 实例。
+// other.js
+const appInstance = getApp()
+console.log(appInstance.globalData) // I am global data</t>
+  </si>
+  <si>
+    <t>Object 参数说明：
+字段 类型 说明 最低版本
+allowDefault Boolean 在 App 未定义时返回默认实现。当App被调用时，默认实现中定义的属性会被覆盖合并到App中。一般用于独立分包。 2.2.4
+不要在定义于 App() 内的函数中调用 getApp() ，使用 this 就可以拿到 app 实例。
+通过 getApp() 获取实例之后，不要私自调用生命周期函数。</t>
+  </si>
+  <si>
+    <t>示例代码</t>
+  </si>
+  <si>
+    <t>App({
+  onLaunch(options) {
+    // Do something initial when launch.
+  },
+  onShow(options) {
+    // Do something when show.
+  },
+  onHide() {
+    // Do something when hide.
+  },
+  onError(msg) {
+    console.log(msg)
+  },
+  globalData: 'I am global data'
+})</t>
+  </si>
+  <si>
+    <t>总结： 1、注册程序必须在app.js 中使用 App()函数来注册一个小程序，接受object参数，指定小程序的生命周期回调等。App()必须调用且只能调用一次。
+      2、Object属性可以是任意的函数或数据到，用this 可以访问
+      3、get App（）的使用是在其它 js 内，在App()内使用this 就可以拿到app实例。</t>
+  </si>
+  <si>
+    <t>场景值</t>
+  </si>
+  <si>
+    <t>当前支持的场景值有：
+场景值ID 说明
+1001 发现栏小程序主入口，「最近使用」列表（基础库2.2.4版本起包含「我的小程序」列表）
+1005 顶部搜索框的搜索结果页
+1006 发现栏小程序主入口搜索框的搜索结果页
+1007 单人聊天会话中的小程序消息卡片
+1008 群聊会话中的小程序消息卡片
+1011 扫描二维码
+1012 长按图片识别二维码
+1013 手机相册选取二维码
+1014 小程序模板消息
+1017 前往体验版的入口页
+1019 微信钱包
+1020 公众号 profile 页相关小程序列表
+1022 聊天顶部置顶小程序入口
+1023 安卓系统桌面图标
+1024 小程序 profile 页
+1025 扫描一维码
+1026 附近小程序列表
+1027 顶部搜索框搜索结果页「使用过的小程序」列表
+1028 我的卡包
+1029 卡券详情页
+1030 自动化测试下打开小程序
+1031 长按图片识别一维码
+1032 手机相册选取一维码
+1034 微信支付完成页
+1035 公众号自定义菜单
+1036 App 分享消息卡片
+1037 小程序打开小程序
+1038 从另一个小程序返回
+1039 摇电视
+1042 添加好友搜索框的搜索结果页
+1043 公众号模板消息
+1044 带 shareTicket 的小程序消息卡片 详情
+1045 朋友圈广告
+1046 朋友圈广告详情页
+1047 扫描小程序码
+1048 长按图片识别小程序码
+1049 手机相册选取小程序码
+1052 卡券的适用门店列表
+1053 搜一搜的结果页
+1054 顶部搜索框小程序快捷入口
+1056 音乐播放器菜单
+1057 钱包中的银行卡详情页
+1058 公众号文章
+1059 体验版小程序绑定邀请页
+1064 微信连Wi-Fi状态栏
+1067 公众号文章广告
+1068 附近小程序列表广告
+1069 移动应用
+1071 钱包中的银行卡列表页
+1072 二维码收款页面
+1073 客服消息列表下发的小程序消息卡片
+1074 公众号会话下发的小程序消息卡片
+1077 摇周边
+1078 连Wi-Fi成功页
+1079 微信游戏中心
+1081 客服消息下发的文字链
+1082 公众号会话下发的文字链
+1084 朋友圈广告原生页
+1089 微信聊天主界面下拉，「最近使用」栏（基础库2.2.4版本起包含「我的小程序」栏）
+1090 长按小程序右上角菜单唤出最近使用历史
+1091 公众号文章商品卡片
+1092 城市服务入口
+1095 小程序广告组件
+1096 聊天记录
+1097 微信支付签约页
+1099 页面内嵌插件
+1102 公众号 profile 页服务预览
+1103 发现栏小程序主入口，「我的小程序」列表（基础库2.2.4版本起废弃）
+1104 微信聊天主界面下拉，「我的小程序」栏（基础库2.2.4版本起废弃）</t>
+  </si>
+  <si>
+    <t>对于小程序，可以在 App 的 onLaunch 和 onShow，或wx.getLaunchOptionsSync 中获取上述场景值。
+对于小游戏，可以在 wx.getLaunchOptionsSync 和 wx.onShow 中获取上述场景值
+部分场景值下还可以获取来源应用、公众号或小程序的appId。
+Tip: 由于Android系统限制，目前还无法获取到按 Home 键退出到桌面，然后从桌面再次进小程序的场景值，对于这种情况，会保留上一次的场景值。</t>
+  </si>
+  <si>
+    <t>总结：场景值需要使用时进行参考就行了</t>
+  </si>
+  <si>
+    <t>Page(Object) 构造器</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Page(Object) 函数用来注册一个页面。接受一个 Object 类型参数，其指定页面的初始数据、生命周期回调、事件处理函数等。
+除了 Page ，作为高级用法，页面可以像自定义组件一样使用 Component 来创建，这样就可以使用自定义组件的特性，如 behaviors 等。具体细节请阅读 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Component 构造器 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>章节。</t>
+    </r>
+  </si>
+  <si>
+    <t>Object 参数说明：
+属性 类型 描述
+data Object 页面的初始数据
+onLoad Function 生命周期回调—监听页面加载
+onShow Function 生命周期回调—监听页面显示
+onReady Function 生命周期回调—监听页面初次渲染完成
+onHide Function 生命周期回调—监听页面隐藏
+onUnload Function 生命周期回调—监听页面卸载
+onPullDownRefresh Function 监听用户下拉动作
+onReachBottom Function 页面上拉触底事件的处理函数
+onShareAppMessage Function 用户点击右上角转发
+onPageScroll Function 页面滚动触发事件的处理函数
+onResize Function 页面尺寸改变时触发，详见 响应显示区域变化
+onTabItemTap Function 当前是 tab 页时，点击 tab 时触发
+其他 Any 开发者可以添加任意的函数或数据到 Object 参数中，在页面的函数中用 this 可以访问</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>data 是页面第一次渲染使用的初始数据。
+页面加载时，data 将会以JSON字符串的形式由逻辑层传至渲染层，因此data中的数据必须是可以转成JSON的类型：字符串，数字，布尔值，对象，数组。</t>
+  </si>
+  <si>
+    <t>渲染层可以通过 WXML 对数据进行绑定。</t>
+  </si>
+  <si>
+    <t>生命周期回调函数</t>
+  </si>
+  <si>
+    <t>生命周期的触发以及页面的路由方式</t>
+  </si>
+  <si>
+    <t>页面栈
+框架以栈的形式维护了当前的所有页面。 当发生路由切换的时候，页面栈的表现如下：
+路由方式 页面栈表现
+初始化 新页面入栈
+打开新页面 新页面入栈
+页面重定向 当前页面出栈，新页面入栈
+页面返回 页面不断出栈，直到目标返回页
+Tab 切换 页面全部出栈，只留下新的 Tab 页面
+重加载 页面全部出栈，只留下新的页面</t>
+  </si>
+  <si>
+    <t>onLoad(Object query)</t>
+  </si>
+  <si>
+    <t>页面加载时触发。一个页面只会调用一次，可以在 onLoad 的参数中获取打开当前页面路径中的参数。</t>
+  </si>
+  <si>
+    <t>参数说明
+名称 类型 说明
+query Object 打开当前页面路径中的参数</t>
+  </si>
+  <si>
+    <t>onShow()</t>
+  </si>
+  <si>
+    <t>页面显示/切入前台时触发。</t>
+  </si>
+  <si>
+    <t>onReady()</t>
+  </si>
+  <si>
+    <t>页面初次渲染完成时触发。一个页面只会调用一次，代表页面已经准备妥当，可以和视图层进行交互</t>
+  </si>
+  <si>
+    <t>注意：对界面内容进行设置的 API 如wx.setNavigationBarTitle，请在onReady之后进行。详见生命周期</t>
+  </si>
+  <si>
+    <t>页面隐藏/切入后台时触发。 如 navigateTo 或底部 tab 切换到其他页面，小程序切入后台等。</t>
+  </si>
+  <si>
+    <t>onUnload()</t>
+  </si>
+  <si>
+    <t>页面卸载时触发。如redirectTo或navigateBack到其他页面时。</t>
+  </si>
+  <si>
+    <t>页面事件处理函数
+onPullDownRefresh()</t>
+  </si>
+  <si>
+    <t>监听用户下拉刷新事件。</t>
+  </si>
+  <si>
+    <t>需要在app.json的window选项中或页面配置中开启enablePullDownRefresh。
+可以通过wx.startPullDownRefresh触发下拉刷新，调用后触发下拉刷新动画，效果与用户手动下拉刷新一致。
+当处理完数据刷新后，wx.stopPullDownRefresh可以停止当前页面的下拉刷新。</t>
+  </si>
+  <si>
+    <t>onReachBottom()</t>
+  </si>
+  <si>
+    <t>监听用户上拉触底事件。</t>
+  </si>
+  <si>
+    <t>可以在app.json的window选项中或页面配置中设置触发距离onReachBottomDistance。
+在触发距离内滑动期间，本事件只会被触发一次。</t>
+  </si>
+  <si>
+    <t>onPageScroll(Object)</t>
+  </si>
+  <si>
+    <t>监听用户滑动页面事件。
+Object 参数说明：
+属性 类型 说明
+scrollTop Number 页面在垂直方向已滚动的距离（单位px）</t>
+  </si>
+  <si>
+    <t>注意：请只在需要的时候才在 page 中定义此方法，不要定义空方法。以减少不必要的事件派发对渲染层-逻辑层通信的影响。 注意：请避免在 onPageScroll 中过于频繁的执行 setData 等引起逻辑层-渲染层通信的操作。尤其是每次传输大量数据，会影响通信耗时。</t>
+  </si>
+  <si>
+    <t>onShareAppMessage(Object)</t>
+  </si>
+  <si>
+    <t>监听用户点击页面内转发按钮（&lt;button&gt; 组件 open-type="share"）或右上角菜单“转发”按钮的行为，并自定义转发内容。
+Object 参数说明：
+参数 类型 说明 最低版本
+from String 转发事件来源。
+button：页面内转发按钮；
+menu：右上角转发菜单 1.2.4
+target Object 如果 from 值是 button，则 target 是触发这次转发事件的 button，否则为 undefined 1.2.4
+webViewUrl String 页面中包含&lt;web-view&gt;组件时，返回当前&lt;web-view&gt;的url 1.6.4
+此事件需要 return 一个 Object，用于自定义转发内容，返回内容如下：
+自定义转发内容
+字段 说明 默认值 最低版本
+title 转发标题 当前小程序名称 
+path 转发路径 当前页面 path ，必须是以 / 开头的完整路径 
+imageUrl 自定义图片路径，可以是本地文件路径、代码包文件路径或者网络图片路径。支持PNG及JPG。显示图片长宽比是 5:4。 使用默认截图 1.5.0</t>
+  </si>
+  <si>
+    <t>注意：只有定义了此事件处理函数，右上角菜单才会显示“转发”按钮
+Page({
+  onShareAppMessage(res) {
+    if (res.from === 'button') {
+      // 来自页面内转发按钮
+      console.log(res.target)
+    }
+    return {
+      title: '自定义转发标题',
+      path: '/page/user?id=123'
+    }
+  }
+})</t>
+  </si>
+  <si>
+    <t>onResize(object)</t>
+  </si>
+  <si>
+    <t>小程序屏幕旋转时触发。详见 响应显示区域变化</t>
+  </si>
+  <si>
+    <t>onTabItemTap(Object)</t>
+  </si>
+  <si>
+    <t>点击 tab 时触发
+Object 参数说明：
+参数 类型 说明 最低版本
+index String 被点击tabItem的序号，从0开始 1.9.0
+pagePath String 被点击tabItem的页面路径 1.9.0
+text String 被点击tabItem的按钮文字 1.9.0</t>
+  </si>
+  <si>
+    <t>示例代码：
+Page({
+  onTabItemTap(item) {
+    console.log(item.index)
+    console.log(item.pagePath)
+    console.log(item.text)
+  }
+})</t>
+  </si>
+  <si>
+    <t>组件事件处理函数</t>
+  </si>
+  <si>
+    <t>Page 中还可以定义组件事件处理函数。在渲染层的组件中加入事件绑定，当事件被触发时，就会执行 Page 中定义的事件处理函数。</t>
+  </si>
+  <si>
+    <t>示例代码：
+在开发者工具中预览效果
+&lt;view bindtap="viewTap"&gt;click me&lt;/view&gt;
+Page({
+  viewTap() {
+    console.log('view tap')
+  }
+})</t>
+  </si>
+  <si>
+    <t>Page.route</t>
+  </si>
+  <si>
+    <t>到当前页面的路径，类型为String。</t>
+  </si>
+  <si>
+    <t>Page({
+  onShow() {
+    console.log(this.route)
+  }
+})</t>
+  </si>
+  <si>
+    <t>Page.prototype.setData(Object data, Function callback)</t>
+  </si>
+  <si>
+    <t>setData 函数用于将数据从逻辑层发送到视图层（异步），同时改变对应的 this.data 的值（同步）。
+参数说明
+字段 类型 必填 描述 最低版本
+data Object 是 这次要改变的数据 
+callback Function 否 setData引起的界面更新渲染完毕后的回调函数 1.5.0
+Object 以 key: value 的形式表示，将 this.data 中的 key 对应的值改变成 value。
+其中 key 可以以数据路径的形式给出，支持改变数组中的某一项或对象的某个属性，如 array[2].message，a.b.c.d，并且不需要在 this.data 中预先定义。
+注意：
+直接修改 this.data 而不调用 this.setData 是无法改变页面的状态的，还会造成数据不一致。
+仅支持设置可 JSON 化的数据。
+单次设置的数据不能超过1024kB，请尽量避免一次设置过多的数据。
+请不要把 data 中任何一项的 value 设为 undefined ，否则这一项将不被设置并可能遗留一些潜在问题。</t>
+  </si>
+  <si>
+    <t>示例代码：
+&lt;!--index.wxml--&gt;
+&lt;view&gt;{{text}}&lt;/view&gt;
+&lt;button bindtap="changeText"&gt;Change normal data&lt;/button&gt;
+&lt;view&gt;{{num}}&lt;/view&gt;
+&lt;button bindtap="changeNum"&gt;Change normal num&lt;/button&gt;
+&lt;view&gt;{{array[0].text}}&lt;/view&gt;
+&lt;button bindtap="changeItemInArray"&gt;Change Array data&lt;/button&gt;
+&lt;view&gt;{{object.text}}&lt;/view&gt;
+&lt;button bindtap="changeItemInObject"&gt;Change Object data&lt;/button&gt;
+&lt;view&gt;{{newField.text}}&lt;/view&gt;
+&lt;button bindtap="addNewField"&gt;Add new data&lt;/button&gt;
+// index.js
+Page({
+  data: {
+    text: 'init data',
+    num: 0,
+    array: [{text: 'init data'}],
+    object: {
+      text: 'init data'
+    }
+  },
+  changeText() {
+    // this.data.text = 'changed data' // 不要直接修改 this.data
+    // 应该使用 setData
+    this.setData({
+      text: 'changed data'
+    })
+  },
+  changeNum() {
+    // 或者，可以修改 this.data 之后马上用 setData 设置一下修改了的字段
+    this.data.num = 1
+    this.setData({
+      num: this.data.num
+    })
+  },
+  changeItemInArray() {
+    // 对于对象或数组字段，可以直接修改一个其下的子字段，这样做通常比修改整个对象或数组更好
+    this.setData({
+      'array[0].text': 'changed data'
+    })
+  },
+  changeItemInObject() {
+    this.setData({
+      'object.text': 'changed data'
+    })
+  },
+  addNewField() {
+    this.setData({
+      'newField.text': 'new data'
+    })
+  }
+})</t>
+  </si>
+  <si>
+    <t>生命周期</t>
+  </si>
+  <si>
+    <t>视图层和逻辑层的各功能的先后顺序</t>
+  </si>
+  <si>
+    <t>总结： 1、注册页面使用Page()函数；
+       2、主要包括初始数据data 生命周期函数 ；页面事件处理函数；组件事件处理函数；route；setDate；页面生命周期</t>
+  </si>
+  <si>
+    <t>页面路由</t>
+  </si>
+  <si>
+    <t>在小程序中所有页面的路由全部由框架进行管理。</t>
+  </si>
+  <si>
+    <t>页面栈</t>
+  </si>
+  <si>
+    <t>框架以栈的形式维护了当前的所有页面。 当发生路由切换的时候，页面栈的表现如下：路由方式 页面栈表现
+初始化 新页面入栈
+打开新页面 新页面入栈
+页面重定向 当前页面出栈，新页面入栈
+页面返回 页面不断出栈，直到目标返回页
+Tab 切换 页面全部出栈，只留下新的 Tab 页面
+重加载 页面全部出栈，只留下新的页面</t>
+  </si>
+  <si>
+    <t>getCurrentPages()</t>
+  </si>
+  <si>
+    <t>getCurrentPages() 函数用于获取当前页面栈的实例，以数组形式按栈的顺序给出，第一个元素为首页，最后一个元素为当前页面。</t>
+  </si>
+  <si>
+    <t>注意：
+不要尝试修改页面栈，会导致路由以及页面状态错误。
+不要在 App.onLaunch 的时候调用 getCurrentPages()，此时 page 还没有生成。</t>
+  </si>
+  <si>
+    <t>路由方式</t>
+  </si>
+  <si>
+    <t>对于路由的触发方式以及页面生命周期函数如下：
+路由方式 触发时机 路由前页面 路由后页面
+初始化 小程序打开的第一个页面  onLoad, onShow
+打开新页面 调用 API wx.navigateTo 或使用组件 &lt;navigator open-type="navigateTo"/&gt; onHide onLoad, onShow
+页面重定向 调用 API wx.redirectTo 或使用组件 &lt;navigator open-type="redirectTo"/&gt; onUnload onLoad, onShow
+页面返回 调用 API wx.navigateBack 或使用组件&lt;navigator open-type="navigateBack"&gt;或用户按左上角返回按钮 onUnload onShow
+Tab 切换 调用 API wx.switchTab 或使用组件 &lt;navigator open-type="switchTab"/&gt; 或用户切换 Tab  各种情况请参考下表
+重启动 调用 API wx.reLaunch 或使用组件 &lt;navigator open-type="reLaunch"/&gt; onUnload onLoad, onShow</t>
+  </si>
+  <si>
+    <t>Tab 切换对应的生命周期（以 A、B 页面为 Tabbar 页面，C 是从 A 页面打开的页面，D 页面是从 C 页面打开的页面为例）：
+当前页面 路由后页面 触发的生命周期（按顺序）
+A A Nothing happend
+A B A.onHide(), B.onLoad(), B.onShow()
+A B（再次打开） A.onHide(), B.onShow()
+C A C.onUnload(), A.onShow()
+C B C.onUnload(), B.onLoad(), B.onShow()
+D B D.onUnload(), C.onUnload(), B.onLoad(), B.onShow()
+D（从转发进入） A D.onUnload(), A.onLoad(), A.onShow()
+D（从转发进入） B D.onUnload(), B.onLoad(), B.onShow()</t>
+  </si>
+  <si>
+    <t>总结：Tips:
+navigateTo, redirectTo 只能打开非 tabBar 页面。
+switchTab 只能打开 tabBar 页面。
+reLaunch 可以打开任意页面。
+页面底部的 tabBar 由页面决定，即只要是定义为 tabBar 的页面，底部都有 tabBar。
+调用页面路由带的参数可以在目标页面的onLoad中获取。</t>
+  </si>
+  <si>
+    <t>文件作用域</t>
+  </si>
+  <si>
+    <t>在 JavaScript 文件中声明的变量和函数只在该文件中有效；不同的文件中可以声明相同名字的变量和函数，不会互相影响。</t>
+  </si>
+  <si>
+    <t>通过全局函数 getApp() 可以获取全局的应用实例，如果需要全局的数据可以在 App() 中设置</t>
+  </si>
+  <si>
+    <t>模块化</t>
+  </si>
+  <si>
+    <t>可以将一些公共的代码抽离成为一个单独的 js 文件，作为一个模块。模块只有通过 module.exports 或者 exports 才能对外暴露接口。
+// common.js
+function sayHello(name) {
+  console.log(`Hello ${name} !`)
+}
+function sayGoodbye(name) {
+  console.log(`Goodbye ${name} !`)
+}
+module.exports.sayHello = sayHello
+exports.sayGoodbye = sayGoodbye
+​在需要使用这些模块的文件中，使用 require(path) 将公共代码引入
+const common = require('common.js')
+Page({
+  helloMINA() {
+    common.sayHello('MINA')
+  },
+  goodbyeMINA() {
+    common.sayGoodbye('MINA')
+  }
+})</t>
+  </si>
+  <si>
+    <t>exports 是 module.exports 的一个引用，因此在模块里边随意更改 exports 的指向会造成未知的错误。所以更推荐开发者采用 module.exports 来暴露模块接口，除非你已经清晰知道这两者的关系。
+小程序目前不支持直接引入 node_modules , 开发者需要使用到 node_modules 时候建议拷贝出相关的代码到小程序的目录中或者使用小程序支持的 npm 功能。
+tip: require 暂时不支持绝对路径</t>
+  </si>
+  <si>
+    <t>总结：模块化主要两个方面 1、在js中声明的变量和函数只在该文件中有效；2、可以将公共的代码成为一个单独的js文件，使用 module.exports.暴露接口；3、在需要这些模块的文件中使用 require（path）将公共代码引入。</t>
+  </si>
+  <si>
+    <t>API</t>
+  </si>
+  <si>
+    <t>小程序开发框架提供丰富的微信原生 API，可以方便的调起微信提供的能力，如获取用户信息，本地存储，支付功能等。</t>
+  </si>
+  <si>
+    <t>事件监听 API</t>
+  </si>
+  <si>
+    <t>我们约定，以 on 开头的 API 用来监听某个事件是否触发，如：wx.onSocketOpen，wx.onCompassChange 等。
+这类 API 接受一个回调函数作为参数，当事件触发时会调用这个回调函数，并将相关数据以参数形式传入。</t>
+  </si>
+  <si>
+    <t>代码示例
+wx.onCompassChange(function (res) {
+  console.log(res.direction)
+})</t>
+  </si>
+  <si>
+    <t>同步 API</t>
+  </si>
+  <si>
+    <t>我们约定，以 Sync 结尾的 API 都是同步 API， 如 wx.setStorageSync，wx.getSystemInfoSync 等。此外，也有一些其他的同步 API，如 wx.createWorker，wx.getBackgroundAudioManager 等
+同步 API 的执行结果可以通过函数返回值直接获取，如果执行出错会抛出异常。</t>
+  </si>
+  <si>
+    <t>代码示例
+try {
+  wx.setStorageSync('key', 'value')
+} catch (e) {
+  console.error(e)
+}</t>
+  </si>
+  <si>
+    <t>异步 API</t>
+  </si>
+  <si>
+    <t>大多数 API 都是异步 API，如 wx.request，wx.login 等
+代码示例
+wx.login({
+  success(res) {
+    console.log(res.code)
+  }
+})</t>
+  </si>
+  <si>
+    <t>这类 API 接口通常都接受一个 Object 类型的参数，这个参数都支持按需指定以下字段来接收接口调用结果：
+Object 参数说明
+参数名 类型 必填 说明
+success function 否 接口调用成功的回调函数
+fail function 否 接口调用失败的回调函数
+complete function 否 接口调用结束的回调函数（调用成功、失败都会执行）
+其他 Any - 接口定义的其他参数
+回调函数的参数
+success，fail，complete 函数调用时会传入一个 Object 类型参数，包含以下字段：
+属性 类型 说明
+errMsg string 错误信息，如果调用成功返回 ${apiName}:ok
+errCode number 错误码，仅部分 API 支持，具体含义请参考对应 API 文档，成功时为 0。
+其他 Any 接口返回的其他数据
+异步 API 的执行结果需要通过 Object 类型的参数中传入的对应回调函数获取。部分异步 API 也会有返回值，可以用来实现更丰富的功能，如 wx.request，wx.connectSockets 等。</t>
+  </si>
+  <si>
+    <t>视图层 View</t>
+  </si>
+  <si>
+    <t>框架的视图层由 WXML 与 WXSS 编写，由组件来进行展示。
+将逻辑层的数据反应成视图，同时将视图层的事件发送给逻辑层。
+WXML(WeiXin Markup language) 用于描述页面的结构。
+WXS(WeiXin Script) 是小程序的一套脚本语言，结合 WXML，可以构建出页面的结构。
+WXSS(WeiXin Style Sheet) 用于描述页面的样式。
+组件(Component)是视图的基本组成单元。</t>
+  </si>
+  <si>
+    <t>WXML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WXML（WeiXin Markup Language）是框架设计的一套标签语言，结合基础组件、事件系统，可以构建出页面的结构。 </t>
+  </si>
+  <si>
+    <t>数据绑定</t>
+  </si>
+  <si>
+    <t>&lt;!--wxml--&gt;
+&lt;view&gt;{{message}}&lt;/view&gt;
+// page.js
+Page({
+  data: {
+    message: 'Hello MINA!'
+  }
+})</t>
+  </si>
+  <si>
+    <t>WXML 中的动态数据均来自对应 Page 的 data。
+简单绑定
+数据绑定使用 Mustache 语法（双大括号）将变量包起来</t>
+  </si>
+  <si>
+    <t>列表渲染</t>
+  </si>
+  <si>
+    <t>&lt;!--wxml--&gt;
+&lt;view wx:for="{{array}}"&gt;{{item}}&lt;/view&gt;
+// page.js
+Page({
+  data: {
+    array: [1, 2, 3, 4, 5]
+  }
+})</t>
+  </si>
+  <si>
+    <t>条件渲染</t>
+  </si>
+  <si>
+    <t>&lt;!--wxml--&gt;
+&lt;view wx:if="{{view == 'WEBVIEW'}}"&gt;WEBVIEW&lt;/view&gt;
+&lt;view wx:elif="{{view == 'APP'}}"&gt;APP&lt;/view&gt;
+&lt;view wx:else="{{view == 'MINA'}}"&gt;MINA&lt;/view&gt;
+// page.js
+Page({
+  data: {
+    view: 'MINA'
+  }
+})</t>
+  </si>
+  <si>
+    <t>模板</t>
+  </si>
+  <si>
+    <t>&lt;!--wxml--&gt;
+&lt;template name="staffName"&gt;
+  &lt;view&gt;FirstName: {{firstName}}, LastName: {{lastName}}&lt;/view&gt;
+&lt;/template&gt;
+&lt;template is="staffName" data="{{...staffA}}"&gt;&lt;/template&gt;
+&lt;template is="staffName" data="{{...staffB}}"&gt;&lt;/template&gt;
+&lt;template is="staffName" data="{{...staffC}}"&gt;&lt;/template&gt;</t>
+  </si>
+  <si>
+    <t>// page.js
+Page({
+  data: {
+    staffA: {firstName: 'Hulk', lastName: 'Hu'},
+    staffB: {firstName: 'Shang', lastName: 'You'},
+    staffC: {firstName: 'Gideon', lastName: 'Lin'}
+  }
+})</t>
+  </si>
+  <si>
+    <t>事件</t>
+  </si>
+  <si>
+    <t>&lt;view bindtap="add"&gt;{{count}}&lt;/view&gt;
+Page({
+  data: {
+    count: 1
+  },
+  add(e) {
+    this.setData({
+      count: this.data.count + 1
+    })
+  }
+})</t>
+  </si>
+  <si>
+    <t>WXML 中的动态数据均来自对应 Page 的 data。</t>
+  </si>
+  <si>
+    <t>简单绑定</t>
+  </si>
+  <si>
+    <t>数据绑定使用 Mustache 语法（双大括号）将变量包起来</t>
+  </si>
+  <si>
+    <t>组件属性(需要在双引号之内)</t>
+  </si>
+  <si>
+    <t>&lt;view id="item-{{id}}"&gt;&lt;/view&gt;
+Page({
+  data: {
+    id: 0
+  }
+})</t>
+  </si>
+  <si>
+    <t>控制属性(需要在双引号之内)</t>
+  </si>
+  <si>
+    <t>&lt;view wx:if="{{condition}}"&gt;&lt;/view&gt;
+Page({
+  data: {
+    condition: true
+  }
+})</t>
+  </si>
+  <si>
+    <t>关键字(需要在双引号之内)</t>
+  </si>
+  <si>
+    <t>true：boolean 类型的 true，代表真值。
+false： boolean 类型的 false，代表假值。
+&lt;checkbox checked="{{false}}"&gt;&lt;/checkbox&gt;</t>
+  </si>
+  <si>
+    <t>特别注意：不要直接写 checked="false"，其计算结果是一个字符串，转成 boolean 类型后代表真值。</t>
+  </si>
+  <si>
+    <t>运算</t>
+  </si>
+  <si>
+    <t>可以在 {{}} 内进行简单的运算，支持的有如下几种方式：</t>
+  </si>
+  <si>
+    <t>三元运算</t>
+  </si>
+  <si>
+    <t>&lt;view hidden="{{flag ? true : false}}"&gt;Hidden&lt;/view&gt;</t>
+  </si>
+  <si>
+    <t>算数运算</t>
+  </si>
+  <si>
+    <t>&lt;view&gt;{{a + b}} + {{c}} + d&lt;/view&gt;
+Page({
+  data: {
+    a: 1,
+    b: 2,
+    c: 3
+  }
+})
+view中的内容为 3 + 3 + d。</t>
+  </si>
+  <si>
+    <t>逻辑判断</t>
+  </si>
+  <si>
+    <t>&lt;view wx:if="{{length &gt; 5}}"&gt;&lt;/view&gt;</t>
+  </si>
+  <si>
+    <t>字符串运算</t>
+  </si>
+  <si>
+    <t>&lt;view&gt;{{"hello" + name}}&lt;/view&gt;
+Page({
+  data: {
+    name: 'MINA'
+  }
+})</t>
+  </si>
+  <si>
+    <t>数据路径运算</t>
+  </si>
+  <si>
+    <t>&lt;view&gt;{{object.key}} {{array[0]}}&lt;/view&gt;
+Page({
+  data: {
+    object: {
+      key: 'Hello '
+    },
+    array: ['MINA']
+  }
+})</t>
+  </si>
+  <si>
+    <t>组合</t>
+  </si>
+  <si>
+    <t>也可以在 Mustache 内直接进行组合，构成新的对象或者数组。</t>
+  </si>
+  <si>
+    <t>数组</t>
+  </si>
+  <si>
+    <t>&lt;view wx:for="{{[zero, 1, 2, 3, 4]}}"&gt;{{item}}&lt;/view&gt;
+Page({
+  data: {
+    zero: 0
+  }
+})</t>
+  </si>
+  <si>
+    <t>最终组合成数组[0, 1, 2, 3, 4]。</t>
+  </si>
+  <si>
+    <t>对象</t>
+  </si>
+  <si>
+    <t>&lt;template is="objectCombine" data="{{for: a, bar: b}}"&gt;&lt;/template&gt;
+Page({
+  data: {
+    a: 1,
+    b: 2
+  }
+})</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">最终组合成的对象是 {for: 1, bar: 2}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也可以用扩展运算符 ... 来将一个对象展开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;template is="objectCombine" data="{{...obj1, ...obj2, e: 5}}"&gt;&lt;/template&gt;
+Page({
+  data: {
+    obj1: {
+      a: 1,
+      b: 2
+    },
+    obj2: {
+      c: 3,
+      d: 4
+    }
+  }
+})
+最终组合成的对象是 {a: 1, b: 2, c: 3, d: 4, e: 5}。</t>
+    </r>
+  </si>
+  <si>
+    <t>总结：1、视图层view 由WXML与wxss编写，由组件来进行展示
+2、组件是视图的基本组成单元；
+3、对象，模板还没完全搞清楚，后续再研究*（个人问题）</t>
+  </si>
+  <si>
+    <t>数据绑定使用 Mustache 语法（双大括号）将变量包起来，可以作用于： 内容；组件属性*（需要在双引号内）；控制属性（需要在双引号之类）；关键字（需要在双引号内）</t>
+  </si>
+  <si>
+    <t>&lt;view&gt;{{ message }}&lt;/view&gt;
+&lt;view id="item-{{id}}"&gt;&lt;/view&gt;
+&lt;view wx:if="{{condition}}"&gt;&lt;/view&gt;
+&lt;checkbox checked="{{false}}"&gt;&lt;/checkbox&gt;
+&lt;checkbox checked="{{false}}"&gt;&lt;/checkbox&gt;
+特别注意：不要直接写 checked="false"，其计算结果是一个字符串，转成 boolean 类型后代表真值。</t>
+  </si>
+  <si>
+    <t>可以在 {{}} 内进行简单的运算，支持的有如下几种方式：三元运算；算术运算；逻辑判断；字符串运算；数据路径运算；</t>
+  </si>
+  <si>
+    <t>&lt;view hidden="{{flag ? true : false}}"&gt;Hidden&lt;/view&gt;
+&lt;view&gt;{{a + b}} + {{c}} + d&lt;/view&gt;
+&lt;view wx:if="{{length &gt; 5}}"&gt;&lt;/view&gt;
+&lt;view&gt;{{"hello" + name}}&lt;/view&gt;
+&lt;view&gt;{{object.key}} {{array[0]}}&lt;/view&gt;</t>
+  </si>
+  <si>
+    <t>数据绑定主要有  1、在双大括号内将变量包起来，2、支持一些运算和组合；  总之都是在一个或多个双括号内完成</t>
+  </si>
+  <si>
+    <t>wx:for
+在组件上使用 wx:for 控制属性绑定一个数组，即可使用数组中各项的数据重复渲染该组件。
+默认数组的当前项的下标变量名默认为 index，数组当前项的变量名默认为 item</t>
+  </si>
+  <si>
+    <t>使用 wx:for-item 可以指定数组当前元素的变量名，
+使用 wx:for-index 可以指定数组当前下标的变量名：</t>
+  </si>
+  <si>
+    <t>block wx:for</t>
+  </si>
+  <si>
+    <t>类似 block wx:if，也可以将 wx:for 用在&lt;block/&gt;标签上，以渲染一个包含多节点的结构块</t>
+  </si>
+  <si>
+    <t>wx:key</t>
+  </si>
+  <si>
+    <t>如果列表中项目的位置会动态改变或者有新的项目添加到列表中，并且希望列表中的项目保持自己的特征和状态（如 &lt;input&gt; 中的输入内容，&lt;switch&gt; 的选中状态），需要使用 wx:key 来指定列表中项目的唯一的标识符。</t>
+  </si>
+  <si>
+    <t>总结：1、随机函数顺便学了；2、列表渲染的是一个数组；3、对于block的妙用；4、wx:key的使用</t>
+  </si>
+  <si>
+    <t>wx：if</t>
+  </si>
+  <si>
+    <t>&lt;view wx:if="{{condition}}"&gt; &lt;/view&gt;
+&lt;view wx:elif="{{condition}}"&gt;&lt;/view&gt;
+&lt;view wx:else&gt;&lt;/view&gt;
+可成块使用也可使用部分</t>
+  </si>
+  <si>
+    <t>block wx:if</t>
+  </si>
+  <si>
+    <t>&lt;block wx: if="{{condition}}"&gt;
+&lt;view&gt;1&lt;/view&gt;
+&lt;view&gt;2&lt;/view&gt;
+&lt;/block&gt;</t>
+  </si>
+  <si>
+    <t>block封装成块，同时判断多个组件标签
+&lt;block/&gt; 并不是一个组件，它仅仅是一个包装元素，不会在页面中做任何渲染，只接受控制属性。</t>
+  </si>
+  <si>
+    <t>wx:if vs hidden</t>
+  </si>
+  <si>
+    <t>因为 wx:if 之中的模板也可能包含数据绑定，所以当 wx:if 的条件值切换时，框架有一个局部渲染的过程，因为它会确保条件块在切换时销毁或重新渲染。
+同时 wx:if 也是惰性的，如果在初始渲染条件为 false，框架什么也不做，在条件第一次变成真的时候才开始局部渲染。
+相比之下，hidden 就简单的多，组件始终会被渲染，只是简单的控制显示与隐藏</t>
+  </si>
+  <si>
+    <t>一般来说，wx:if 有更高的切换消耗而 hidden 有更高的初始渲染消耗。因此，如果需要频繁切换的情景下，用 hidden 更好，如果在运行时条件不大可能改变则 wx:if 较好。</t>
+  </si>
+  <si>
+    <t>总结：主要是 wx:if 和 hidden 比较； 其次是block的妙用</t>
+  </si>
+  <si>
+    <t>WXML提供模板（template），可以在模板中定义代码片段，然后在不同的地方调用。</t>
+  </si>
+  <si>
+    <t>定义模板</t>
+  </si>
+  <si>
+    <t>使用 name 属性，作为模板的名字。然后在&lt;template/&gt;内定义代码片段</t>
+  </si>
+  <si>
+    <t>使用模板</t>
+  </si>
+  <si>
+    <t>使用 is 属性，声明需要的使用的模板，然后将模板所需要的 data 传入</t>
+  </si>
+  <si>
+    <t>is 属性可以使用 Mustache 语法，来动态决定具体需要渲染哪个模板：
+&lt;template name="odd"&gt;
+  &lt;view&gt;odd&lt;/view&gt;
+&lt;/template&gt;
+&lt;template name="even"&gt;
+  &lt;view&gt;even&lt;/view&gt;
+&lt;/template&gt;
+&lt;template is="{{item % 2 == 0 ? 'even' : 'odd'}}" /&gt;</t>
+  </si>
+  <si>
+    <t>模板的作用域</t>
+  </si>
+  <si>
+    <t>模板拥有自己的作用域，只能使用 data 传入的数据以及模板定义文件中定义的 &lt;wxs /&gt; 模块。</t>
+  </si>
+  <si>
+    <t>总结：1、模板有自己的作用域；2、扩展运算符的运用；3、模板的流程</t>
+  </si>
+  <si>
+    <t>事件是视图层到逻辑层的通讯方式。
+事件可以将用户的行为反馈到逻辑层进行处理。
+事件可以绑定在组件上，当达到触发事件，就会执行逻辑层中对应的事件处理函数。
+事件对象可以携带额外信息，如 id, dataset, touches。</t>
+  </si>
+  <si>
+    <t>事件的使用方式</t>
+  </si>
+  <si>
+    <t>在组件中绑定一个事件处理函数。
+如bindtap</t>
+  </si>
+  <si>
+    <t>事件详解</t>
+  </si>
+  <si>
+    <t>事件分类</t>
+  </si>
+  <si>
+    <t>事件分为冒泡事件和非冒泡事件：
+冒泡事件：当一个组件上的事件被触发后，该事件会向父节点传递。
+非冒泡事件：当一个组件上的事件被触发后，该事件不会向父节点传递。</t>
+  </si>
+  <si>
+    <t>WXML的冒泡事件列表：
+类型 触发条件 最低版本
+touchstart 手指触摸动作开始 
+touchmove 手指触摸后移动 
+touchcancel 手指触摸动作被打断，如来电提醒，弹窗 
+touchend 手指触摸动作结束 
+tap 手指触摸后马上离开 
+longpress 手指触摸后，超过350ms再离开，如果指定了事件回调函数并触发了这个事件，tap事件将不被触发 1.5.0
+longtap 手指触摸后，超过350ms再离开（推荐使用longpress事件代替） 
+transitionend 会在 WXSS transition 或 wx.createAnimation 动画结束后触发 
+animationstart 会在一个 WXSS animation 动画开始时触发 
+animationiteration 会在一个 WXSS animation 一次迭代结束时触发 
+animationend 会在一个 WXSS animation 动画完成时触发 
+touchforcechange 在支持 3D Touch 的 iPhone 设备，重按时会触发</t>
+  </si>
+  <si>
+    <t>事件绑定和冒泡</t>
+  </si>
+  <si>
+    <t>事件绑定的写法同组件的属性，以 key、value 的形式。</t>
+  </si>
+  <si>
+    <t>key 以bind或catch开头，然后跟上事件的类型，如bindtap、catchtouchstart。自基础库版本 1.5.0 起，在非原生组件中，bind和catch后可以紧跟一个冒号，其含义不变，如bind:tap、catch:touchstart。
+value 是一个字符串，需要在对应的 Page 中定义同名的函数。不然当触发事件的时候会报错。
+bind事件绑定不会阻止冒泡事件向上冒泡，catch事件绑定可以阻止冒泡事件向上冒泡。</t>
+  </si>
+  <si>
+    <t>事件的捕获阶段</t>
+  </si>
+  <si>
+    <t>自基础库版本 1.5.0 起，触摸类事件支持捕获阶段。捕获阶段位于冒泡阶段之前，且在捕获阶段中，事件到达节点的顺序与冒泡阶段恰好相反。需要在捕获阶段监听事件时，可以采用capture-bind、capture-catch关键字，后者将中断捕获阶段和取消冒泡阶段</t>
+  </si>
+  <si>
+    <t>事件对象</t>
+  </si>
+  <si>
+    <t>如无特殊说明，当组件触发事件时，逻辑层绑定该事件的处理函数会收到一个事件对象。</t>
+  </si>
+  <si>
+    <t>BaseEvent 基础事件对象属性列表</t>
+  </si>
+  <si>
+    <t>属性 类型 说明
+type String 事件类型
+timeStamp Integer 事件生成时的时间戳
+target Object 触发事件的组件的一些属性值集合
+currentTarget Object 当前组件的一些属性值集合</t>
+  </si>
+  <si>
+    <t>CustomEvent 自定义事件对象属性列表（继承 BaseEvent）：</t>
+  </si>
+  <si>
+    <t>属性 类型 说明
+detail Object 额外的信息</t>
+  </si>
+  <si>
+    <t>TouchEvent 触摸事件对象属性列表（继承 BaseEvent）：</t>
+  </si>
+  <si>
+    <t>属性 类型 说明
+touches Array 触摸事件，当前停留在屏幕中的触摸点信息的数组
+changedTouches Array 触摸事件，当前变化的触摸点信息的数组</t>
+  </si>
+  <si>
+    <t>特殊事件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;canvas&gt; 中的触摸事件不可冒泡，所以没有 currentTarget。</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>代表事件的类型。</t>
+  </si>
+  <si>
+    <t>timeStamp</t>
+  </si>
+  <si>
+    <t>页面打开到触发事件所经过的毫秒数。</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>触发事件的源组件。</t>
+  </si>
+  <si>
+    <t>currentTarget</t>
+  </si>
+  <si>
+    <t>事件绑定的当前组件。
+属性 类型 说明
+id String 当前组件的id
+tagName String 当前组件的类型
+dataset Object 当前组件上由data-开头的自定义属性组成的集合</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>在组件中可以定义数据，这些数据将会通过事件传递给 SERVICE。 书写方式： 以data-开头，多个单词由连字符-链接，不能有大写(大写会自动转成小写)如data-element-type，最终在 event.currentTarget.dataset 中会将连字符转成驼峰elementType。</t>
+  </si>
+  <si>
+    <t>touches</t>
+  </si>
+  <si>
+    <t>touches 是一个数组，每个元素为一个 Touch 对象（canvas 触摸事件中携带的 touches 是 CanvasTouch 数组）。 表示当前停留在屏幕上的触摸点。</t>
+  </si>
+  <si>
+    <t>Touch 对象</t>
+  </si>
+  <si>
+    <t>属性 类型 说明
+identifier Number 触摸点的标识符
+pageX, pageY Number 距离文档左上角的距离，文档的左上角为原点 ，横向为X轴，纵向为Y轴
+clientX, clientY Number 距离页面可显示区域（屏幕除去导航条）左上角距离，横向为X轴，纵向为Y轴</t>
+  </si>
+  <si>
+    <t>CanvasTouch 对象</t>
+  </si>
+  <si>
+    <t>属性 类型 说明 特殊说明
+identifier Number 触摸点的标识符 
+x, y Number 距离 Canvas 左上角的距离，Canvas 的左上角为原点 ，横向为X轴，纵向为Y轴</t>
+  </si>
+  <si>
+    <t>changedTouches</t>
+  </si>
+  <si>
+    <t>changedTouches 数据格式同 touches。 表示有变化的触摸点，如从无变有（touchstart），位置变化（touchmove），从有变无（touchend、touchcancel）。</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>自定义事件所携带的数据，如表单组件的提交事件会携带用户的输入，媒体的错误事件会携带错误信息，详见组件定义中各个事件的定义。
+点击事件的detail 带有的 x, y 同 pageX, pageY 代表距离文档左上角的距离。</t>
+  </si>
+  <si>
+    <t>总结：1、事件主要是视图层与逻辑层的通讯方式；2:、事件通过绑定在组件上联络逻辑层；3、bind 和catch 的使用；冒泡事件与捕获；4、事件对象属性；4、dataset  data-xxx ;</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>WXML 提供两种文件引用方式import和include</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>import可以在该文件中使用目标文件定义的template</t>
+  </si>
+  <si>
+    <t>&lt;!-- item.wxml --&gt;
+&lt;template name="item"&gt;
+  &lt;text&gt;{{text}}&lt;/text&gt;
+&lt;/template&gt;
+在 index.wxml 中引用了 item.wxml，就可以使用item模板：
+&lt;import src="item.wxml" /&gt;
+&lt;template is="item" data="{{text: 'forbar'}}" /&gt;</t>
+  </si>
+  <si>
+    <t>import 的作用域</t>
+  </si>
+  <si>
+    <t>import 有作用域的概念，即只会 import 目标文件中定义的 template，而不会 import 目标文件 import 的 template。
+如：C import B，B import A，在C中可以使用B定义的template，在B中可以使用A定义的template，但是C不能使用A定义的template</t>
+  </si>
+  <si>
+    <t>include</t>
+  </si>
+  <si>
+    <t>include 可以将目标文件除了 &lt;template/&gt; &lt;wxs/&gt; 外的整个代码引入，相当于是拷贝到 include 位置</t>
+  </si>
+  <si>
+    <t>总结：引用包括两个  import  include  都是用src 进行引用；import引用模板；include引用整个代码片段到include的位置</t>
+  </si>
+  <si>
+    <t>WXSS</t>
+  </si>
+  <si>
+    <t>WXSS(WeiXin Style Sheets)是一套样式语言，用于描述 WXML 的组件样式。
+WXSS 用来决定 WXML 的组件应该怎么显示。
+为了适应广大的前端开发者，WXSS 具有 CSS 大部分特性。同时为了更适合开发微信小程序，WXSS 对 CSS 进行了扩充以及修改。</t>
+  </si>
+  <si>
+    <t>与 CSS 相比，WXSS 扩展的特性有：
+尺寸单位
+样式导入</t>
+  </si>
+  <si>
+    <t>尺寸单位</t>
+  </si>
+  <si>
+    <t>rpx（responsive pixel）: 可以根据屏幕宽度进行自适应。规定屏幕宽为750rpx。如在 iPhone6 上，屏幕宽度为375px，共有750个物理像素，则750rpx = 375px = 750物理像素，1rpx = 0.5px = 1物理像素</t>
+  </si>
+  <si>
+    <t>设备 rpx换算px (屏幕宽度/750) px换算rpx (750/屏幕宽度)
+iPhone5 1rpx = 0.42px 1px = 2.34rpx
+iPhone6 1rpx = 0.5px 1px = 2rpx
+iPhone6 Plus 1rpx = 0.552px 1px = 1.81rpx</t>
+  </si>
+  <si>
+    <t>样式导入</t>
+  </si>
+  <si>
+    <t>使用@import语句可以导入外联样式表，@import后跟需要导入的外联样式表的相对路径，用;表示语句结束</t>
+  </si>
+  <si>
+    <t>/** app.wxss **/
+@import "common.wxss";
+.middle-p {
+  padding:15px;
+}</t>
+  </si>
+  <si>
+    <t>内联样式</t>
+  </si>
+  <si>
+    <t>框架组件上支持使用 style、class 属性来控制组件的样式。</t>
+  </si>
+  <si>
+    <t>style：静态的样式统一写到 class 中。style 接收动态的样式，在运行时会进行解析，请尽量避免将静态的样式写进 style 中，以免影响渲染速度。
+&lt;view style="color:{{color}};" /&gt;
+class：用于指定样式规则，其属性值是样式规则中类选择器名(样式类名)的集合，样式类名不需要带上.，样式类名之间用空格分隔。
+&lt;view class="normal_view" /&gt;</t>
+  </si>
+  <si>
+    <t>选择器</t>
+  </si>
+  <si>
+    <t>目前支持的选择器有：
+选择器 样例 样例描述
+.class .intro 选择所有拥有 class="intro" 的组件
+#id #firstname 选择拥有 id="firstname" 的组件
+element view 选择所有 view 组件
+element, element view, checkbox 选择所有文档的 view 组件和所有的 checkbox 组件
+::after view::after 在 view 组件后边插入内容
+::before view::before 在 view 组件前边插入内容</t>
+  </si>
+  <si>
+    <t>全局样式与局部样式</t>
+  </si>
+  <si>
+    <t>定义在 app.wxss 中的样式为全局样式，作用于每一个页面。在 page 的 wxss 文件中定义的样式为局部样式，只作用在对应的页面，并会覆盖 app.wxss 中相同的选择器。</t>
+  </si>
+  <si>
+    <t>总结：样式与css样式大致相同，增加了尺寸单位和样式导入</t>
+  </si>
+  <si>
+    <t>基础组件</t>
+  </si>
+  <si>
+    <t>组件是视图层的基本组成单元。
+组件自带一些功能与微信风格一致的样式。
+一个组件通常包括 开始标签 和 结束标签，属性 用来修饰这个组件，内容 在两个标签之内。</t>
+  </si>
+  <si>
+    <t>注意：所有组件与属性都是小写，以连字符-连接</t>
+  </si>
+  <si>
+    <t>属性类型</t>
+  </si>
+  <si>
+    <t>Boolean 布尔值 组件写上该属性，不管是什么值都被当作 true；只有组件上没有该属性时，属性值才为false。
+如果属性值为变量，变量的值会被转换为Boolean类型
+Number 数字 1, 2.5
+String 字符串 "string"
+Array 数组 [ 1, "string" ]
+Object 对象 { key: value }
+EventHandler 事件处理函数名 "handlerName" 是 Page 中定义的事件处理函数名
+Any 任意属性</t>
+  </si>
+  <si>
+    <t>公共属性</t>
+  </si>
+  <si>
+    <t>所有组件都有以下属性
+属性名 类型 描述 注解
+id String 组件的唯一标示 保持整个页面唯一
+class String 组件的样式类 在对应的 WXSS 中定义的样式类
+style String 组件的内联样式 可以动态设置的内联样式
+hidden Boolean 组件是否显示 所有组件默认显示
+data-* Any 自定义属性 组件上触发的事件时，会发送给事件处理函数
+bind* / catch* EventHandler 组件的事件 详见事件</t>
+  </si>
+  <si>
+    <t>特殊属性</t>
+  </si>
+  <si>
+    <t>几乎所有组件都有各自定义的属性，可以对该组件的功能或样式进行修饰</t>
+  </si>
+  <si>
+    <t>WXS</t>
+  </si>
+  <si>
+    <t>WXS（WeiXin Script）是小程序的一套脚本语言，结合 WXML，可以构建出页面的结构。</t>
+  </si>
+  <si>
+    <t>WXS 的简单示例
+页面渲染；
+数据处理</t>
+  </si>
+  <si>
+    <t>WXS 模块</t>
+  </si>
+  <si>
+    <t>WXS 代码可以编写在 wxml 文件中的 &lt;wxs&gt; 标签内，或以 .wxs 为后缀名的文件内。</t>
+  </si>
+  <si>
+    <t>每一个 .wxs 文件和 &lt;wxs&gt; 标签都是一个单独的模块。
+每个模块都有自己独立的作用域。即在一个模块里面定义的变量与函数，默认为私有的，对其他模块不可见。
+一个模块要想对外暴露其内部的私有变量与函数，只能通过 module.exports 实现。</t>
+  </si>
+  <si>
+    <t>.wxs 文件</t>
+  </si>
+  <si>
+    <t>在微信开发者工具里面，右键可以直接创建 .wxs 文件，在其中直接编写 WXS 脚本。</t>
+  </si>
+  <si>
+    <t>module 对象</t>
+  </si>
+  <si>
+    <t>每个 wxs 模块均有一个内置的 module 对象。
+属性
+exports: 通过该属性，可以对外共享本模块的私有变量与函数。</t>
+  </si>
+  <si>
+    <t>require函数</t>
+  </si>
+  <si>
+    <t>在.wxs模块中引用其他 wxs 文件模块，可以使用 require 函数。</t>
+  </si>
+  <si>
+    <t>module 属性</t>
+  </si>
+  <si>
+    <t>module 属性是当前 &lt;wxs&gt; 标签的模块名。在单个 wxml 文件内，建议其值唯一。有重复模块名则按照先后顺序覆盖（后者覆盖前者）。不同文件之间的 wxs 模块名不会相互覆盖。</t>
+  </si>
+  <si>
+    <t>module 属性值的命名必须符合下面两个规则：
+首字符必须是：字母（a-zA-Z），下划线（_）
+剩余字符可以是：字母（a-zA-Z），下划线（_）， 数字（0-9）</t>
+  </si>
+  <si>
+    <t>总结：注意
+&lt;wxs&gt; 模块只能在定义模块的 WXML 文件中被访问到。使用 &lt;include&gt; 或 &lt;import&gt; 时，&lt;wxs&gt; 模块不会被引入到对应的 WXML 文件中。
+&lt;template&gt; 标签中，只能使用定义该 &lt;template&gt; 的 WXML 文件中定义的 &lt;wxs&gt; 模块。</t>
+  </si>
+  <si>
+    <t>变量概念</t>
+  </si>
+  <si>
+    <t>WXS 中的变量均为值的引用。
+没有声明的变量直接赋值使用，会被定义为全局变量。
+如果只声明变量而不赋值，则默认值为 undefined。
+var表现与javascript一致，会有变量提升。</t>
+  </si>
+  <si>
+    <t>变量名</t>
+  </si>
+  <si>
+    <t>变量命名必须符合下面两个规则：
+首字符必须是：字母（a-zA-Z），下划线（_）
+剩余字符可以是：字母（a-zA-Z），下划线（_）， 数字（0-9）</t>
+  </si>
+  <si>
+    <t>保留标识符</t>
+  </si>
+  <si>
+    <t>以下标识符不能作为变量名：delete 
+void typeof null undefined NaN Infinity var
+if else 
+true false
+require
+this function arguments return
+for while do break continue switch case default</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>WXS 主要有 3 种注释的方法。</t>
+  </si>
+  <si>
+    <t>// 方法一：单行注释 /* 方法二：多行注释 */ /* 方法三：结尾注释。即从 /*
+  开始往后的所有 WXS 代码均被注释</t>
+  </si>
+  <si>
+    <t>运算符</t>
+  </si>
+  <si>
+    <t>基本运算符；一元运算符；位运算符；赋值运算符；二元逻辑操作符；等值预算符，条件预算符；逗号运算符</t>
+  </si>
+  <si>
+    <t>运算符优先级</t>
+  </si>
+  <si>
+    <t>预算符中的逗号符比较少见哈哈</t>
+  </si>
+  <si>
+    <t>语句</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if  for   while  switch </t>
+  </si>
+  <si>
+    <t>数据类型</t>
+  </si>
+  <si>
+    <t>number string  Boolean array object function date regexp</t>
+  </si>
+  <si>
+    <t>基础类库</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,15 +1869,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,10 +1892,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -381,29 +1948,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,41 +1970,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,10 +1998,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -494,13 +2028,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,97 +2154,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,19 +2184,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,36 +2208,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -688,11 +2222,93 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,47 +2328,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,13 +2348,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,152 +2376,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,16 +2532,79 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1010,6 +2659,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1021,7 +2675,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1294,12 +2948,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:D10"/>
   <sheetViews>
@@ -1309,25 +2962,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="27.75" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="27.75" style="22" customWidth="1"/>
     <col min="3" max="3" width="41.125" customWidth="1"/>
-    <col min="4" max="4" width="23" style="5" customWidth="1"/>
+    <col min="4" max="4" width="23" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1335,61 +2988,61 @@
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" ht="78" customHeight="1" spans="1:4">
-      <c r="A5" s="1">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="27" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="202.5" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="1">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="1">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
     </row>
@@ -1401,240 +3054,240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="25.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="70.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="66.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="25.625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="70.375" style="22" customWidth="1"/>
+    <col min="4" max="4" width="66.5" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:4">
-      <c r="A3" s="1">
+    <row r="3" ht="27" spans="1:4">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" ht="302" customHeight="1" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:4">
-      <c r="A5" s="1">
+    <row r="5" ht="27" spans="1:4">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" ht="378" spans="2:4">
-      <c r="B6" s="2" t="s">
+    <row r="6" ht="310.5" spans="2:4">
+      <c r="B6" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="95" customHeight="1" spans="2:4">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" ht="121.5" spans="2:4">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" ht="67.5" spans="2:4">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="67.5" spans="2:4">
-      <c r="B10" s="2" t="s">
+    <row r="10" ht="40.5" spans="2:4">
+      <c r="B10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" ht="27" spans="2:3">
-      <c r="B11" s="2" t="s">
+    <row r="11" spans="2:3">
+      <c r="B11" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="22" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="2:3">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" ht="27" spans="2:3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="22" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="19" ht="27" spans="2:3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" ht="54" spans="2:4">
-      <c r="B20" s="2" t="s">
+    <row r="20" ht="40.5" spans="2:4">
+      <c r="B20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" ht="27" spans="2:4">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="20" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" ht="270" spans="2:4">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="20" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1649,197 +3302,2021 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:E33"/>
+  <dimension ref="A2:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L14:L15"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="8" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="23" style="22" customWidth="1"/>
+    <col min="3" max="3" width="60.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="52.625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="1">
+    <row r="3" ht="126" customHeight="1" spans="1:4">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="22" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="1">
+      <c r="C3" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="197" customHeight="1" spans="1:4">
+      <c r="A4" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1">
+      <c r="B4" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1">
+      <c r="B5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="19">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1">
+      <c r="B6" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="19">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="1">
+      <c r="B7" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="19">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="1">
+      <c r="B8" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" ht="108" spans="1:4">
+      <c r="A9" s="19">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1">
+      <c r="B9" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" ht="108" spans="1:4">
+      <c r="A10" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1">
+      <c r="B10" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" ht="202.5" spans="1:3">
+      <c r="A11" s="19">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="1">
+      <c r="B11" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" ht="66" customHeight="1" spans="1:4">
+      <c r="A12" s="19">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="1">
+      <c r="B12" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+    </row>
+    <row r="13" ht="195" customHeight="1" spans="1:4">
+      <c r="A13" s="19">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1">
+      <c r="B13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="19">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="1">
+      <c r="B14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+    </row>
+    <row r="15" ht="264" customHeight="1" spans="1:4">
+      <c r="A15" s="19">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="1">
+      <c r="B15" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" ht="67.5" spans="1:4">
+      <c r="A16" s="19">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1">
+      <c r="B16" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" ht="148.5" spans="1:4">
+      <c r="A17" s="19">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="1">
+      <c r="B17" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:4">
+      <c r="A18" s="19">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="1">
+      <c r="B18" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1">
+      <c r="B19" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" ht="40.5" spans="1:4">
+      <c r="A20" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1">
+      <c r="B20" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" ht="27" spans="1:3">
+      <c r="A21" s="19">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1">
+      <c r="B21" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="19">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="1">
+      <c r="B22" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" ht="81" spans="1:4">
+      <c r="A23" s="19">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="1">
+      <c r="B23" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="1:4">
+      <c r="A24" s="19">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="1">
+      <c r="B24" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" ht="67.5" spans="1:4">
+      <c r="A25" s="19">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="1">
+      <c r="B25" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" ht="270" spans="1:4">
+      <c r="A26" s="19">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="1">
+      <c r="B26" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="19">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="1">
+      <c r="B27" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" ht="108" spans="1:4">
+      <c r="A28" s="19">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="1">
+      <c r="B28" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" ht="108" spans="1:4">
+      <c r="A29" s="19">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="1">
+      <c r="B29" s="22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" ht="67.5" spans="1:4">
+      <c r="A30" s="19">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="1">
+      <c r="B30" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" ht="409.5" spans="1:4">
+      <c r="A31" s="19">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="1">
+      <c r="B31" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="19">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="1">
+      <c r="B32" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:2">
+      <c r="A33" s="19">
         <v>31</v>
       </c>
+      <c r="B33" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="19">
+        <v>32</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" ht="108" spans="1:3">
+      <c r="A35" s="19">
+        <v>33</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="1:4">
+      <c r="A36" s="19">
+        <v>34</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="37" ht="216" spans="1:4">
+      <c r="A37" s="19">
+        <v>35</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" ht="98" customHeight="1" spans="1:2">
+      <c r="A38" s="19">
+        <v>36</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" ht="27" spans="1:4">
+      <c r="A39" s="19">
+        <v>37</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" ht="285" spans="1:4">
+      <c r="A40" s="19">
+        <v>38</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" ht="51" customHeight="1" spans="1:2">
+      <c r="A41" s="19">
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:3">
+      <c r="A42" s="19">
+        <v>40</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" ht="67.5" spans="1:4">
+      <c r="A43" s="19">
+        <v>41</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="44" ht="94.5" spans="1:4">
+      <c r="A44" s="19">
+        <v>42</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" ht="283.5" spans="1:4">
+      <c r="A45" s="19">
+        <v>43</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B41:D41"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:D70"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="14.25" style="20" customWidth="1"/>
+    <col min="3" max="3" width="59.5" style="20" customWidth="1"/>
+    <col min="4" max="4" width="50" style="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="110" customHeight="1" spans="1:3">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" ht="27" spans="1:3">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:4">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" ht="108" spans="1:3">
+      <c r="A6" s="19">
+        <v>4</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" ht="135" spans="1:3">
+      <c r="A7" s="19">
+        <v>5</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" ht="135" spans="1:4">
+      <c r="A8" s="19">
+        <v>6</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" ht="148.5" spans="1:3">
+      <c r="A9" s="19">
+        <v>7</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="19">
+        <v>8</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="19">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" ht="81" spans="1:3">
+      <c r="A12" s="19">
+        <v>10</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" ht="81" spans="1:3">
+      <c r="A13" s="19">
+        <v>11</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:4">
+      <c r="A14" s="19">
+        <v>12</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="19">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="19">
+        <v>14</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" ht="121.5" spans="1:3">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="19">
+        <v>16</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" ht="81" spans="1:3">
+      <c r="A19" s="19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" ht="121.5" spans="1:3">
+      <c r="A20" s="19">
+        <v>18</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="19">
+        <v>19</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" ht="81" spans="1:4">
+      <c r="A22" s="19">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" ht="256.5" spans="1:4">
+      <c r="A23" s="19">
+        <v>21</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24" ht="46" customHeight="1" spans="1:4">
+      <c r="A24" s="19">
+        <v>22</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="19">
+        <v>23</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" ht="93" customHeight="1" spans="1:4">
+      <c r="A26" s="19">
+        <v>24</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" ht="81" customHeight="1" spans="1:4">
+      <c r="A27" s="19">
+        <v>25</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:3">
+      <c r="A28" s="19">
+        <v>26</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" ht="29" customHeight="1" spans="1:4">
+      <c r="A29" s="19">
+        <v>27</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D29" s="20"/>
+    </row>
+    <row r="30" ht="73" customHeight="1" spans="1:4">
+      <c r="A30" s="19">
+        <v>28</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:3">
+      <c r="A31" s="19">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" ht="60" customHeight="1" spans="1:3">
+      <c r="A32" s="19">
+        <v>30</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" ht="30" customHeight="1" spans="1:4">
+      <c r="A33" s="19">
+        <v>31</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:2">
+      <c r="A34" s="19">
+        <v>32</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" ht="58" customHeight="1" spans="1:3">
+      <c r="A35" s="19">
+        <v>33</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="36" ht="58" customHeight="1" spans="1:4">
+      <c r="A36" s="19">
+        <v>34</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" ht="112" customHeight="1" spans="1:4">
+      <c r="A37" s="19">
+        <v>35</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" ht="18" customHeight="1" spans="1:4">
+      <c r="A38" s="19">
+        <v>36</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="D38" s="20"/>
+    </row>
+    <row r="39" ht="42" customHeight="1" spans="1:3">
+      <c r="A39" s="19">
+        <v>37</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" ht="31" customHeight="1" spans="1:3">
+      <c r="A40" s="19">
+        <v>38</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41" ht="140" customHeight="1" spans="1:4">
+      <c r="A41" s="19">
+        <v>39</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="42" ht="48" customHeight="1" spans="1:3">
+      <c r="A42" s="19">
+        <v>40</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="43" ht="18" customHeight="1" spans="1:4">
+      <c r="A43" s="19">
+        <v>41</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" ht="81" customHeight="1" spans="1:3">
+      <c r="A44" s="19">
+        <v>42</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" ht="55" customHeight="1" spans="1:3">
+      <c r="A45" s="19">
+        <v>43</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" ht="18" customHeight="1" spans="1:2">
+      <c r="A46" s="19">
+        <v>44</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" ht="138" customHeight="1" spans="1:4">
+      <c r="A47" s="19">
+        <v>45</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" ht="144" customHeight="1" spans="1:4">
+      <c r="A48" s="19">
+        <v>46</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" ht="73" customHeight="1" spans="1:3">
+      <c r="A49" s="19">
+        <v>47</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:3">
+      <c r="A50" s="19">
+        <v>48</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="51" ht="67.5" spans="1:3">
+      <c r="A51" s="19">
+        <v>49</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="52" ht="54" spans="1:3">
+      <c r="A52" s="19">
+        <v>50</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" ht="54" spans="1:3">
+      <c r="A53" s="19">
+        <v>51</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="19">
+        <v>52</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="19">
+        <v>53</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="19">
+        <v>54</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="19">
+        <v>55</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" ht="67.5" spans="1:3">
+      <c r="A58" s="19">
+        <v>56</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" ht="67.5" spans="1:3">
+      <c r="A59" s="19">
+        <v>57</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" ht="40.5" spans="1:3">
+      <c r="A60" s="19">
+        <v>58</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="61" ht="81" spans="1:3">
+      <c r="A61" s="19">
+        <v>59</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="62" ht="54" spans="1:3">
+      <c r="A62" s="19">
+        <v>60</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="63" ht="40.5" spans="1:3">
+      <c r="A63" s="19">
+        <v>61</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" ht="67.5" spans="1:3">
+      <c r="A64" s="19">
+        <v>62</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="65" ht="44" customHeight="1" spans="1:4">
+      <c r="A65" s="19">
+        <v>63</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" ht="21" customHeight="1" spans="1:3">
+      <c r="A66" s="19">
+        <v>64</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" ht="108" spans="1:4">
+      <c r="A67" s="19">
+        <v>65</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" ht="54" spans="2:3">
+      <c r="B68" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" ht="27" spans="2:3">
+      <c r="B69" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B70:D70"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="14"/>
+    <col min="2" max="2" width="21.125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="46.25" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="106" customHeight="1" spans="1:4">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:4">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" ht="108" spans="1:4">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" ht="144" customHeight="1" spans="1:3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" ht="27" customHeight="1" spans="1:4">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="14">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="8.625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="56.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="69" customHeight="1" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="3" ht="147" customHeight="1" spans="1:3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" ht="154" customHeight="1" spans="1:3">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="5" ht="55" customHeight="1" spans="1:3">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:1">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="25" customHeight="1" spans="1:1">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1" spans="1:1">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:1">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:1">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:1">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:1">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="25" customHeight="1" spans="1:1">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:1">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="25" customHeight="1" spans="1:1">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1" spans="1:1">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="25" customHeight="1" spans="1:1">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="6.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="53.125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="52" customHeight="1" spans="1:4">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" ht="72" customHeight="1" spans="1:4">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="65" customHeight="1" spans="1:4">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="42" customHeight="1" spans="1:4">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="60" customHeight="1" spans="1:4">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" ht="87" customHeight="1" spans="1:4">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" ht="82" customHeight="1" spans="1:4">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="74" customHeight="1" spans="1:4">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" ht="150" customHeight="1" spans="1:4">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="51" customHeight="1" spans="1:4">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" ht="47" customHeight="1" spans="1:4">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" ht="22" customHeight="1" spans="1:4">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" ht="22" customHeight="1" spans="1:4">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="41" customHeight="1" spans="1:4">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="22" customHeight="1" spans="1:4">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="22" customHeight="1" spans="1:4">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" ht="22" customHeight="1" spans="1:4">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" ht="22" customHeight="1" spans="1:4">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" ht="22" customHeight="1" spans="1:4">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" ht="22" customHeight="1" spans="1:4">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" ht="22" customHeight="1" spans="1:4">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" ht="22" customHeight="1" spans="1:4">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" ht="22" customHeight="1" spans="1:4">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" ht="22" customHeight="1" spans="1:4">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" ht="22" customHeight="1" spans="1:4">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" ht="22" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B14:D14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>